--- a/resources/other/point_history.xlsx
+++ b/resources/other/point_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5705" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5960" uniqueCount="698">
   <si>
     <t>User</t>
   </si>
@@ -1826,6 +1826,36 @@
   </si>
   <si>
     <t>05/01/2020, 20:29:42</t>
+  </si>
+  <si>
+    <t>05/01/2020, 20:29:52</t>
+  </si>
+  <si>
+    <t>05/01/2020, 20:30:02</t>
+  </si>
+  <si>
+    <t>05/01/2020, 20:30:12</t>
+  </si>
+  <si>
+    <t>05/01/2020, 20:30:19</t>
+  </si>
+  <si>
+    <t>05/01/2020, 20:30:22</t>
+  </si>
+  <si>
+    <t>05/01/2020, 20:30:32</t>
+  </si>
+  <si>
+    <t>05/01/2020, 20:30:42</t>
+  </si>
+  <si>
+    <t>05/01/2020, 20:30:52</t>
+  </si>
+  <si>
+    <t>05/01/2020, 20:31:02</t>
+  </si>
+  <si>
+    <t>05/01/2020, 20:31:12</t>
   </si>
   <si>
     <t>Lost a gamble with 10</t>
@@ -2435,7 +2465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2768"/>
+  <dimension ref="A1:D2895"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2664,7 +2694,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2700,7 +2730,7 @@
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2725,7 +2755,7 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2761,7 +2791,7 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2786,7 +2816,7 @@
         <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2800,7 +2830,7 @@
         <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2814,7 +2844,7 @@
         <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2839,7 +2869,7 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2908,7 +2938,7 @@
         <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2944,7 +2974,7 @@
         <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2958,7 +2988,7 @@
         <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2994,7 +3024,7 @@
         <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3030,7 +3060,7 @@
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3110,7 +3140,7 @@
         <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3300,7 +3330,7 @@
         <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3336,7 +3366,7 @@
         <v>78</v>
       </c>
       <c r="D77" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3350,7 +3380,7 @@
         <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3650,7 +3680,7 @@
         <v>93</v>
       </c>
       <c r="D105" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3708,7 +3738,7 @@
         <v>96</v>
       </c>
       <c r="D110" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3722,7 +3752,7 @@
         <v>97</v>
       </c>
       <c r="D111" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3868,7 +3898,7 @@
         <v>102</v>
       </c>
       <c r="D124" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3926,7 +3956,7 @@
         <v>105</v>
       </c>
       <c r="D129" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3962,7 +3992,7 @@
         <v>106</v>
       </c>
       <c r="D132" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3976,7 +4006,7 @@
         <v>107</v>
       </c>
       <c r="D133" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4012,7 +4042,7 @@
         <v>109</v>
       </c>
       <c r="D136" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4048,7 +4078,7 @@
         <v>111</v>
       </c>
       <c r="D139" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4128,7 +4158,7 @@
         <v>115</v>
       </c>
       <c r="D146" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4142,7 +4172,7 @@
         <v>116</v>
       </c>
       <c r="D147" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4178,7 +4208,7 @@
         <v>118</v>
       </c>
       <c r="D150" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4192,7 +4222,7 @@
         <v>119</v>
       </c>
       <c r="D151" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4272,7 +4302,7 @@
         <v>123</v>
       </c>
       <c r="D158" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4308,7 +4338,7 @@
         <v>125</v>
       </c>
       <c r="D161" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4344,7 +4374,7 @@
         <v>127</v>
       </c>
       <c r="D164" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5018,7 +5048,7 @@
         <v>158</v>
       </c>
       <c r="D225" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5032,7 +5062,7 @@
         <v>159</v>
       </c>
       <c r="D226" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5046,7 +5076,7 @@
         <v>160</v>
       </c>
       <c r="D227" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5104,7 +5134,7 @@
         <v>163</v>
       </c>
       <c r="D232" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5162,7 +5192,7 @@
         <v>166</v>
       </c>
       <c r="D237" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5176,7 +5206,7 @@
         <v>167</v>
       </c>
       <c r="D238" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5190,7 +5220,7 @@
         <v>168</v>
       </c>
       <c r="D239" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5226,7 +5256,7 @@
         <v>170</v>
       </c>
       <c r="D242" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5262,7 +5292,7 @@
         <v>172</v>
       </c>
       <c r="D245" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5364,7 +5394,7 @@
         <v>176</v>
       </c>
       <c r="D254" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5411,7 +5441,7 @@
         <v>178</v>
       </c>
       <c r="D258" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5524,7 +5554,7 @@
         <v>182</v>
       </c>
       <c r="D268" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5538,7 +5568,7 @@
         <v>183</v>
       </c>
       <c r="D269" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5651,7 +5681,7 @@
         <v>186</v>
       </c>
       <c r="D279" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5698,7 +5728,7 @@
         <v>188</v>
       </c>
       <c r="D283" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5745,7 +5775,7 @@
         <v>190</v>
       </c>
       <c r="D287" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5792,7 +5822,7 @@
         <v>192</v>
       </c>
       <c r="D291" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5839,7 +5869,7 @@
         <v>193</v>
       </c>
       <c r="D295" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5886,7 +5916,7 @@
         <v>195</v>
       </c>
       <c r="D299" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5933,7 +5963,7 @@
         <v>197</v>
       </c>
       <c r="D303" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5980,7 +6010,7 @@
         <v>199</v>
       </c>
       <c r="D307" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6027,7 +6057,7 @@
         <v>201</v>
       </c>
       <c r="D311" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6041,7 +6071,7 @@
         <v>202</v>
       </c>
       <c r="D312" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6088,7 +6118,7 @@
         <v>204</v>
       </c>
       <c r="D316" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6135,7 +6165,7 @@
         <v>206</v>
       </c>
       <c r="D320" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6336,7 +6366,7 @@
         <v>215</v>
       </c>
       <c r="D338" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6372,7 +6402,7 @@
         <v>217</v>
       </c>
       <c r="D341" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6386,7 +6416,7 @@
         <v>218</v>
       </c>
       <c r="D342" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6466,7 +6496,7 @@
         <v>221</v>
       </c>
       <c r="D349" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6524,7 +6554,7 @@
         <v>224</v>
       </c>
       <c r="D354" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6626,7 +6656,7 @@
         <v>229</v>
       </c>
       <c r="D363" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6640,7 +6670,7 @@
         <v>230</v>
       </c>
       <c r="D364" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6676,7 +6706,7 @@
         <v>232</v>
       </c>
       <c r="D367" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6690,7 +6720,7 @@
         <v>232</v>
       </c>
       <c r="D368" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6704,7 +6734,7 @@
         <v>233</v>
       </c>
       <c r="D369" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6718,7 +6748,7 @@
         <v>233</v>
       </c>
       <c r="D370" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6732,7 +6762,7 @@
         <v>234</v>
       </c>
       <c r="D371" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6746,7 +6776,7 @@
         <v>234</v>
       </c>
       <c r="D372" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6760,7 +6790,7 @@
         <v>235</v>
       </c>
       <c r="D373" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -6774,7 +6804,7 @@
         <v>235</v>
       </c>
       <c r="D374" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6788,7 +6818,7 @@
         <v>236</v>
       </c>
       <c r="D375" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6802,7 +6832,7 @@
         <v>236</v>
       </c>
       <c r="D376" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7586,7 +7616,7 @@
         <v>273</v>
       </c>
       <c r="D447" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7644,7 +7674,7 @@
         <v>278</v>
       </c>
       <c r="D452" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -7988,7 +8018,7 @@
         <v>309</v>
       </c>
       <c r="D483" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8211,7 +8241,7 @@
         <v>319</v>
       </c>
       <c r="D503" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8225,7 +8255,7 @@
         <v>320</v>
       </c>
       <c r="D504" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8481,7 +8511,7 @@
         <v>332</v>
       </c>
       <c r="D527" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -8583,7 +8613,7 @@
         <v>337</v>
       </c>
       <c r="D536" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -9279,7 +9309,7 @@
         <v>361</v>
       </c>
       <c r="D599" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -9964,7 +9994,7 @@
         <v>372</v>
       </c>
       <c r="D661" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -9978,7 +10008,7 @@
         <v>373</v>
       </c>
       <c r="D662" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -10069,7 +10099,7 @@
         <v>374</v>
       </c>
       <c r="D670" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -10237,7 +10267,7 @@
         <v>377</v>
       </c>
       <c r="D685" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -10328,7 +10358,7 @@
         <v>379</v>
       </c>
       <c r="D693" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -10496,7 +10526,7 @@
         <v>382</v>
       </c>
       <c r="D708" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -10510,7 +10540,7 @@
         <v>383</v>
       </c>
       <c r="D709" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -10524,7 +10554,7 @@
         <v>384</v>
       </c>
       <c r="D710" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -10703,7 +10733,7 @@
         <v>386</v>
       </c>
       <c r="D726" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -10827,7 +10857,7 @@
         <v>388</v>
       </c>
       <c r="D737" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -12700,7 +12730,7 @@
         <v>405</v>
       </c>
       <c r="D907" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -13803,7 +13833,7 @@
         <v>415</v>
       </c>
       <c r="D1007" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1008" spans="1:4">
@@ -14191,7 +14221,7 @@
         <v>419</v>
       </c>
       <c r="D1042" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1043" spans="1:4">
@@ -14205,7 +14235,7 @@
         <v>420</v>
       </c>
       <c r="D1043" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -14219,7 +14249,7 @@
         <v>421</v>
       </c>
       <c r="D1044" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="1045" spans="1:4">
@@ -15520,7 +15550,7 @@
         <v>431</v>
       </c>
       <c r="D1162" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1163" spans="1:4">
@@ -16535,7 +16565,7 @@
         <v>439</v>
       </c>
       <c r="D1254" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1255" spans="1:4">
@@ -16692,7 +16722,7 @@
         <v>441</v>
       </c>
       <c r="D1268" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1269" spans="1:4">
@@ -19852,7 +19882,7 @@
         <v>464</v>
       </c>
       <c r="D1555" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1556" spans="1:4">
@@ -20438,7 +20468,7 @@
         <v>469</v>
       </c>
       <c r="D1608" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="1609" spans="1:4">
@@ -20595,7 +20625,7 @@
         <v>471</v>
       </c>
       <c r="D1622" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1623" spans="1:4">
@@ -20895,7 +20925,7 @@
         <v>474</v>
       </c>
       <c r="D1649" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1650" spans="1:4">
@@ -22339,7 +22369,7 @@
         <v>485</v>
       </c>
       <c r="D1780" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1781" spans="1:4">
@@ -23079,7 +23109,7 @@
         <v>491</v>
       </c>
       <c r="D1847" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="1848" spans="1:4">
@@ -23093,7 +23123,7 @@
         <v>492</v>
       </c>
       <c r="D1848" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1849" spans="1:4">
@@ -23107,7 +23137,7 @@
         <v>493</v>
       </c>
       <c r="D1849" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1850" spans="1:4">
@@ -23583,7 +23613,7 @@
         <v>496</v>
       </c>
       <c r="D1892" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1893" spans="1:4">
@@ -23597,7 +23627,7 @@
         <v>497</v>
       </c>
       <c r="D1893" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1894" spans="1:4">
@@ -23611,7 +23641,7 @@
         <v>497</v>
       </c>
       <c r="D1894" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
     </row>
     <row r="1895" spans="1:4">
@@ -25011,7 +25041,7 @@
         <v>507</v>
       </c>
       <c r="D2021" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2022" spans="1:4">
@@ -25333,7 +25363,7 @@
         <v>510</v>
       </c>
       <c r="D2050" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2051" spans="1:4">
@@ -25655,7 +25685,7 @@
         <v>513</v>
       </c>
       <c r="D2079" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2080" spans="1:4">
@@ -25823,7 +25853,7 @@
         <v>515</v>
       </c>
       <c r="D2094" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2095" spans="1:4">
@@ -25991,7 +26021,7 @@
         <v>517</v>
       </c>
       <c r="D2109" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2110" spans="1:4">
@@ -26005,7 +26035,7 @@
         <v>518</v>
       </c>
       <c r="D2110" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2111" spans="1:4">
@@ -26173,7 +26203,7 @@
         <v>519</v>
       </c>
       <c r="D2125" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2126" spans="1:4">
@@ -26341,7 +26371,7 @@
         <v>521</v>
       </c>
       <c r="D2140" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2141" spans="1:4">
@@ -26663,7 +26693,7 @@
         <v>524</v>
       </c>
       <c r="D2169" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -26677,7 +26707,7 @@
         <v>525</v>
       </c>
       <c r="D2170" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2171" spans="1:4">
@@ -26845,7 +26875,7 @@
         <v>527</v>
       </c>
       <c r="D2185" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -26859,7 +26889,7 @@
         <v>528</v>
       </c>
       <c r="D2186" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2187" spans="1:4">
@@ -27027,7 +27057,7 @@
         <v>530</v>
       </c>
       <c r="D2201" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2202" spans="1:4">
@@ -27041,7 +27071,7 @@
         <v>531</v>
       </c>
       <c r="D2202" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2203" spans="1:4">
@@ -27055,7 +27085,7 @@
         <v>532</v>
       </c>
       <c r="D2203" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -27223,7 +27253,7 @@
         <v>533</v>
       </c>
       <c r="D2218" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -27237,7 +27267,7 @@
         <v>534</v>
       </c>
       <c r="D2219" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2220" spans="1:4">
@@ -27405,7 +27435,7 @@
         <v>536</v>
       </c>
       <c r="D2234" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2235" spans="1:4">
@@ -27573,7 +27603,7 @@
         <v>538</v>
       </c>
       <c r="D2249" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2250" spans="1:4">
@@ -27587,7 +27617,7 @@
         <v>539</v>
       </c>
       <c r="D2250" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2251" spans="1:4">
@@ -27755,7 +27785,7 @@
         <v>541</v>
       </c>
       <c r="D2265" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2266" spans="1:4">
@@ -27769,7 +27799,7 @@
         <v>542</v>
       </c>
       <c r="D2266" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2267" spans="1:4">
@@ -27783,7 +27813,7 @@
         <v>543</v>
       </c>
       <c r="D2267" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2268" spans="1:4">
@@ -27951,7 +27981,7 @@
         <v>545</v>
       </c>
       <c r="D2282" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2283" spans="1:4">
@@ -27965,7 +27995,7 @@
         <v>546</v>
       </c>
       <c r="D2283" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2284" spans="1:4">
@@ -27979,7 +28009,7 @@
         <v>547</v>
       </c>
       <c r="D2284" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2285" spans="1:4">
@@ -27993,7 +28023,7 @@
         <v>548</v>
       </c>
       <c r="D2285" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2286" spans="1:4">
@@ -28161,7 +28191,7 @@
         <v>550</v>
       </c>
       <c r="D2300" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2301" spans="1:4">
@@ -28175,7 +28205,7 @@
         <v>550</v>
       </c>
       <c r="D2301" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2302" spans="1:4">
@@ -28343,7 +28373,7 @@
         <v>552</v>
       </c>
       <c r="D2316" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2317" spans="1:4">
@@ -28357,7 +28387,7 @@
         <v>553</v>
       </c>
       <c r="D2317" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2318" spans="1:4">
@@ -28525,7 +28555,7 @@
         <v>554</v>
       </c>
       <c r="D2332" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2333" spans="1:4">
@@ -28539,7 +28569,7 @@
         <v>555</v>
       </c>
       <c r="D2333" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2334" spans="1:4">
@@ -28707,7 +28737,7 @@
         <v>557</v>
       </c>
       <c r="D2348" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2349" spans="1:4">
@@ -28875,7 +28905,7 @@
         <v>559</v>
       </c>
       <c r="D2363" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2364" spans="1:4">
@@ -29197,7 +29227,7 @@
         <v>562</v>
       </c>
       <c r="D2392" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2393" spans="1:4">
@@ -29211,7 +29241,7 @@
         <v>563</v>
       </c>
       <c r="D2393" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2394" spans="1:4">
@@ -29225,7 +29255,7 @@
         <v>563</v>
       </c>
       <c r="D2394" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2395" spans="1:4">
@@ -29239,7 +29269,7 @@
         <v>564</v>
       </c>
       <c r="D2395" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2396" spans="1:4">
@@ -29253,7 +29283,7 @@
         <v>565</v>
       </c>
       <c r="D2396" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2397" spans="1:4">
@@ -29267,7 +29297,7 @@
         <v>566</v>
       </c>
       <c r="D2397" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2398" spans="1:4">
@@ -29281,7 +29311,7 @@
         <v>567</v>
       </c>
       <c r="D2398" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2399" spans="1:4">
@@ -29295,7 +29325,7 @@
         <v>568</v>
       </c>
       <c r="D2399" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2400" spans="1:4">
@@ -29309,7 +29339,7 @@
         <v>568</v>
       </c>
       <c r="D2400" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2401" spans="1:4">
@@ -29323,7 +29353,7 @@
         <v>569</v>
       </c>
       <c r="D2401" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2402" spans="1:4">
@@ -29337,7 +29367,7 @@
         <v>570</v>
       </c>
       <c r="D2402" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2403" spans="1:4">
@@ -29351,7 +29381,7 @@
         <v>571</v>
       </c>
       <c r="D2403" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2404" spans="1:4">
@@ -29365,7 +29395,7 @@
         <v>572</v>
       </c>
       <c r="D2404" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2405" spans="1:4">
@@ -29379,7 +29409,7 @@
         <v>572</v>
       </c>
       <c r="D2405" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2406" spans="1:4">
@@ -29393,7 +29423,7 @@
         <v>573</v>
       </c>
       <c r="D2406" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2407" spans="1:4">
@@ -29407,7 +29437,7 @@
         <v>574</v>
       </c>
       <c r="D2407" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2408" spans="1:4">
@@ -30081,7 +30111,7 @@
         <v>579</v>
       </c>
       <c r="D2468" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -30590,7 +30620,7 @@
         <v>583</v>
       </c>
       <c r="D2514" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2515" spans="1:4">
@@ -30604,7 +30634,7 @@
         <v>584</v>
       </c>
       <c r="D2515" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2516" spans="1:4">
@@ -31696,7 +31726,7 @@
         <v>592</v>
       </c>
       <c r="D2614" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2615" spans="1:4">
@@ -33391,6 +33421,1406 @@
       </c>
       <c r="C2768" t="s">
         <v>603</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:3">
+      <c r="A2769" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2769">
+        <v>1</v>
+      </c>
+      <c r="C2769" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:3">
+      <c r="A2770" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2770">
+        <v>1</v>
+      </c>
+      <c r="C2770" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:3">
+      <c r="A2771" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2771">
+        <v>1</v>
+      </c>
+      <c r="C2771" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:3">
+      <c r="A2772" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2772">
+        <v>1</v>
+      </c>
+      <c r="C2772" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:3">
+      <c r="A2773" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2773">
+        <v>1</v>
+      </c>
+      <c r="C2773" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:3">
+      <c r="A2774" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2774">
+        <v>1</v>
+      </c>
+      <c r="C2774" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:3">
+      <c r="A2775" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2775">
+        <v>1</v>
+      </c>
+      <c r="C2775" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:3">
+      <c r="A2776" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2776">
+        <v>1</v>
+      </c>
+      <c r="C2776" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:3">
+      <c r="A2777" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2777">
+        <v>1</v>
+      </c>
+      <c r="C2777" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:3">
+      <c r="A2778" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2778">
+        <v>1</v>
+      </c>
+      <c r="C2778" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:3">
+      <c r="A2779" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2779">
+        <v>1</v>
+      </c>
+      <c r="C2779" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:3">
+      <c r="A2780" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2780">
+        <v>1</v>
+      </c>
+      <c r="C2780" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:3">
+      <c r="A2781" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2781">
+        <v>1</v>
+      </c>
+      <c r="C2781" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:3">
+      <c r="A2782" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2782">
+        <v>1</v>
+      </c>
+      <c r="C2782" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:3">
+      <c r="A2783" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2783">
+        <v>1</v>
+      </c>
+      <c r="C2783" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:3">
+      <c r="A2784" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2784">
+        <v>1</v>
+      </c>
+      <c r="C2784" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:3">
+      <c r="A2785" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2785">
+        <v>1</v>
+      </c>
+      <c r="C2785" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:3">
+      <c r="A2786" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2786">
+        <v>1</v>
+      </c>
+      <c r="C2786" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:3">
+      <c r="A2787" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2787">
+        <v>1</v>
+      </c>
+      <c r="C2787" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:3">
+      <c r="A2788" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2788">
+        <v>1</v>
+      </c>
+      <c r="C2788" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:3">
+      <c r="A2789" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2789">
+        <v>1</v>
+      </c>
+      <c r="C2789" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:3">
+      <c r="A2790" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2790">
+        <v>1</v>
+      </c>
+      <c r="C2790" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:3">
+      <c r="A2791" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2791">
+        <v>1</v>
+      </c>
+      <c r="C2791" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:3">
+      <c r="A2792" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2792">
+        <v>1</v>
+      </c>
+      <c r="C2792" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:3">
+      <c r="A2793" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2793">
+        <v>1</v>
+      </c>
+      <c r="C2793" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:3">
+      <c r="A2794" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2794">
+        <v>1</v>
+      </c>
+      <c r="C2794" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:3">
+      <c r="A2795" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2795">
+        <v>1</v>
+      </c>
+      <c r="C2795" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:3">
+      <c r="A2796" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2796">
+        <v>1</v>
+      </c>
+      <c r="C2796" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:3">
+      <c r="A2797" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2797">
+        <v>1</v>
+      </c>
+      <c r="C2797" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:3">
+      <c r="A2798" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2798">
+        <v>1</v>
+      </c>
+      <c r="C2798" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:3">
+      <c r="A2799" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2799">
+        <v>1</v>
+      </c>
+      <c r="C2799" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:3">
+      <c r="A2800" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2800">
+        <v>1</v>
+      </c>
+      <c r="C2800" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:4">
+      <c r="A2801" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2801">
+        <v>1</v>
+      </c>
+      <c r="C2801" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:4">
+      <c r="A2802" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2802">
+        <v>1</v>
+      </c>
+      <c r="C2802" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:4">
+      <c r="A2803" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2803">
+        <v>1</v>
+      </c>
+      <c r="C2803" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:4">
+      <c r="A2804" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2804">
+        <v>1</v>
+      </c>
+      <c r="C2804" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:4">
+      <c r="A2805" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2805">
+        <v>1</v>
+      </c>
+      <c r="C2805" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:4">
+      <c r="A2806" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2806">
+        <v>1</v>
+      </c>
+      <c r="C2806" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:4">
+      <c r="A2807" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2807">
+        <v>1</v>
+      </c>
+      <c r="C2807" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:4">
+      <c r="A2808" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2808">
+        <v>1</v>
+      </c>
+      <c r="C2808" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:4">
+      <c r="A2809" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2809">
+        <v>1</v>
+      </c>
+      <c r="C2809" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:4">
+      <c r="A2810" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2810">
+        <v>1</v>
+      </c>
+      <c r="C2810" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:4">
+      <c r="A2811" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2811">
+        <v>1</v>
+      </c>
+      <c r="C2811" t="s">
+        <v>607</v>
+      </c>
+      <c r="D2811" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:4">
+      <c r="A2812" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2812">
+        <v>1</v>
+      </c>
+      <c r="C2812" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:4">
+      <c r="A2813" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2813">
+        <v>1</v>
+      </c>
+      <c r="C2813" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:4">
+      <c r="A2814" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2814">
+        <v>1</v>
+      </c>
+      <c r="C2814" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:4">
+      <c r="A2815" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2815">
+        <v>1</v>
+      </c>
+      <c r="C2815" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:4">
+      <c r="A2816" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2816">
+        <v>1</v>
+      </c>
+      <c r="C2816" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:3">
+      <c r="A2817" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2817">
+        <v>1</v>
+      </c>
+      <c r="C2817" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:3">
+      <c r="A2818" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2818">
+        <v>1</v>
+      </c>
+      <c r="C2818" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:3">
+      <c r="A2819" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2819">
+        <v>1</v>
+      </c>
+      <c r="C2819" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:3">
+      <c r="A2820" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2820">
+        <v>1</v>
+      </c>
+      <c r="C2820" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:3">
+      <c r="A2821" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2821">
+        <v>1</v>
+      </c>
+      <c r="C2821" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:3">
+      <c r="A2822" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2822">
+        <v>1</v>
+      </c>
+      <c r="C2822" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:3">
+      <c r="A2823" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2823">
+        <v>1</v>
+      </c>
+      <c r="C2823" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:3">
+      <c r="A2824" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2824">
+        <v>1</v>
+      </c>
+      <c r="C2824" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:3">
+      <c r="A2825" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2825">
+        <v>1</v>
+      </c>
+      <c r="C2825" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:3">
+      <c r="A2826" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2826">
+        <v>1</v>
+      </c>
+      <c r="C2826" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:3">
+      <c r="A2827" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2827">
+        <v>1</v>
+      </c>
+      <c r="C2827" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:3">
+      <c r="A2828" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2828">
+        <v>1</v>
+      </c>
+      <c r="C2828" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:3">
+      <c r="A2829" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2829">
+        <v>1</v>
+      </c>
+      <c r="C2829" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:3">
+      <c r="A2830" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2830">
+        <v>1</v>
+      </c>
+      <c r="C2830" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:3">
+      <c r="A2831" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2831">
+        <v>1</v>
+      </c>
+      <c r="C2831" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:3">
+      <c r="A2832" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2832">
+        <v>1</v>
+      </c>
+      <c r="C2832" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:3">
+      <c r="A2833" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2833">
+        <v>1</v>
+      </c>
+      <c r="C2833" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:3">
+      <c r="A2834" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2834">
+        <v>1</v>
+      </c>
+      <c r="C2834" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:3">
+      <c r="A2835" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2835">
+        <v>1</v>
+      </c>
+      <c r="C2835" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:3">
+      <c r="A2836" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2836">
+        <v>1</v>
+      </c>
+      <c r="C2836" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:3">
+      <c r="A2837" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2837">
+        <v>1</v>
+      </c>
+      <c r="C2837" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:3">
+      <c r="A2838" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2838">
+        <v>1</v>
+      </c>
+      <c r="C2838" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:3">
+      <c r="A2839" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2839">
+        <v>1</v>
+      </c>
+      <c r="C2839" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:3">
+      <c r="A2840" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2840">
+        <v>1</v>
+      </c>
+      <c r="C2840" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:3">
+      <c r="A2841" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2841">
+        <v>1</v>
+      </c>
+      <c r="C2841" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:3">
+      <c r="A2842" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2842">
+        <v>1</v>
+      </c>
+      <c r="C2842" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:3">
+      <c r="A2843" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2843">
+        <v>1</v>
+      </c>
+      <c r="C2843" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:3">
+      <c r="A2844" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2844">
+        <v>1</v>
+      </c>
+      <c r="C2844" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:3">
+      <c r="A2845" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2845">
+        <v>1</v>
+      </c>
+      <c r="C2845" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:3">
+      <c r="A2846" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2846">
+        <v>1</v>
+      </c>
+      <c r="C2846" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:3">
+      <c r="A2847" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2847">
+        <v>1</v>
+      </c>
+      <c r="C2847" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:3">
+      <c r="A2848" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2848">
+        <v>1</v>
+      </c>
+      <c r="C2848" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:3">
+      <c r="A2849" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2849">
+        <v>1</v>
+      </c>
+      <c r="C2849" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:3">
+      <c r="A2850" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2850">
+        <v>1</v>
+      </c>
+      <c r="C2850" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:3">
+      <c r="A2851" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2851">
+        <v>1</v>
+      </c>
+      <c r="C2851" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:3">
+      <c r="A2852" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2852">
+        <v>1</v>
+      </c>
+      <c r="C2852" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:3">
+      <c r="A2853" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2853">
+        <v>1</v>
+      </c>
+      <c r="C2853" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:3">
+      <c r="A2854" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2854">
+        <v>1</v>
+      </c>
+      <c r="C2854" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:3">
+      <c r="A2855" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2855">
+        <v>1</v>
+      </c>
+      <c r="C2855" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:3">
+      <c r="A2856" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2856">
+        <v>1</v>
+      </c>
+      <c r="C2856" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:3">
+      <c r="A2857" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2857">
+        <v>1</v>
+      </c>
+      <c r="C2857" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:3">
+      <c r="A2858" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2858">
+        <v>1</v>
+      </c>
+      <c r="C2858" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:3">
+      <c r="A2859" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2859">
+        <v>1</v>
+      </c>
+      <c r="C2859" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:3">
+      <c r="A2860" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2860">
+        <v>1</v>
+      </c>
+      <c r="C2860" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:3">
+      <c r="A2861" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2861">
+        <v>1</v>
+      </c>
+      <c r="C2861" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:3">
+      <c r="A2862" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2862">
+        <v>1</v>
+      </c>
+      <c r="C2862" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:3">
+      <c r="A2863" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2863">
+        <v>1</v>
+      </c>
+      <c r="C2863" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:3">
+      <c r="A2864" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2864">
+        <v>1</v>
+      </c>
+      <c r="C2864" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:3">
+      <c r="A2865" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2865">
+        <v>1</v>
+      </c>
+      <c r="C2865" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:3">
+      <c r="A2866" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2866">
+        <v>1</v>
+      </c>
+      <c r="C2866" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:3">
+      <c r="A2867" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2867">
+        <v>1</v>
+      </c>
+      <c r="C2867" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:3">
+      <c r="A2868" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2868">
+        <v>1</v>
+      </c>
+      <c r="C2868" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:3">
+      <c r="A2869" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2869">
+        <v>1</v>
+      </c>
+      <c r="C2869" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:3">
+      <c r="A2870" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2870">
+        <v>1</v>
+      </c>
+      <c r="C2870" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:3">
+      <c r="A2871" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2871">
+        <v>1</v>
+      </c>
+      <c r="C2871" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:3">
+      <c r="A2872" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2872">
+        <v>1</v>
+      </c>
+      <c r="C2872" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:3">
+      <c r="A2873" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2873">
+        <v>1</v>
+      </c>
+      <c r="C2873" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:3">
+      <c r="A2874" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2874">
+        <v>1</v>
+      </c>
+      <c r="C2874" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:3">
+      <c r="A2875" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2875">
+        <v>1</v>
+      </c>
+      <c r="C2875" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:3">
+      <c r="A2876" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2876">
+        <v>1</v>
+      </c>
+      <c r="C2876" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:3">
+      <c r="A2877" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2877">
+        <v>1</v>
+      </c>
+      <c r="C2877" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:3">
+      <c r="A2878" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2878">
+        <v>1</v>
+      </c>
+      <c r="C2878" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:3">
+      <c r="A2879" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2879">
+        <v>1</v>
+      </c>
+      <c r="C2879" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:3">
+      <c r="A2880" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2880">
+        <v>1</v>
+      </c>
+      <c r="C2880" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:3">
+      <c r="A2881" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2881">
+        <v>1</v>
+      </c>
+      <c r="C2881" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:3">
+      <c r="A2882" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2882">
+        <v>1</v>
+      </c>
+      <c r="C2882" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:3">
+      <c r="A2883" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2883">
+        <v>1</v>
+      </c>
+      <c r="C2883" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:3">
+      <c r="A2884" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2884">
+        <v>1</v>
+      </c>
+      <c r="C2884" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:3">
+      <c r="A2885" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2885">
+        <v>1</v>
+      </c>
+      <c r="C2885" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:3">
+      <c r="A2886" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2886">
+        <v>1</v>
+      </c>
+      <c r="C2886" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:3">
+      <c r="A2887" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2887">
+        <v>1</v>
+      </c>
+      <c r="C2887" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:3">
+      <c r="A2888" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2888">
+        <v>1</v>
+      </c>
+      <c r="C2888" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:3">
+      <c r="A2889" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2889">
+        <v>1</v>
+      </c>
+      <c r="C2889" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:3">
+      <c r="A2890" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2890">
+        <v>1</v>
+      </c>
+      <c r="C2890" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:3">
+      <c r="A2891" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2891">
+        <v>1</v>
+      </c>
+      <c r="C2891" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:3">
+      <c r="A2892" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2892">
+        <v>1</v>
+      </c>
+      <c r="C2892" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:3">
+      <c r="A2893" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2893">
+        <v>1</v>
+      </c>
+      <c r="C2893" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:3">
+      <c r="A2894" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2894">
+        <v>1</v>
+      </c>
+      <c r="C2894" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:3">
+      <c r="A2895" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2895">
+        <v>1</v>
+      </c>
+      <c r="C2895" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
